--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -69,6 +69,20 @@
   </si>
   <si>
     <t>autotest</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>soso</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git/.yml</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autotester:
+try commandline&amp;keypressed.
+Try bat file for two panels.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -100,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -108,15 +122,121 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,85 +542,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G6"/>
+  <dimension ref="B1:G14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
-    <col min="4" max="6" width="9" style="2"/>
-    <col min="7" max="7" width="11.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="9" style="1"/>
+    <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>43175</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C4" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="D4" s="8"/>
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="9"/>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C5" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="9"/>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="C6" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8" t="s">
         <v>7</v>
       </c>
+      <c r="G6" s="9"/>
+    </row>
+    <row r="7" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="10"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="13"/>
+    </row>
+    <row r="8" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <v>43178</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="2:7" ht="46.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="6"/>
+      <c r="C10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="8"/>
+      <c r="G10" s="9"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B11" s="6"/>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="8"/>
+      <c r="G11" s="9"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B13" s="6"/>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="9"/>
+    </row>
+    <row r="14" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="10"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,27 @@
     <t>autotester:
 try commandline&amp;keypressed.
 Try bat file for two panels.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">updated PanelSuite with vs2017.
+Keypressed can be used now. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travis yaml syntax</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tested new *.xml test case with keypressed</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>continue python CI/travis-CI</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -206,7 +227,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -237,6 +258,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -542,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G14"/>
+  <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -554,7 +578,7 @@
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
     <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
+    <col min="6" max="6" width="32" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -676,7 +700,9 @@
       <c r="E10" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="8"/>
+      <c r="F10" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.15">
@@ -688,10 +714,12 @@
       <c r="E11" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F11" s="8"/>
+      <c r="F11" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="6"/>
       <c r="C12" s="7" t="s">
         <v>10</v>
@@ -700,7 +728,9 @@
       <c r="E12" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="8"/>
+      <c r="F12" s="14" t="s">
+        <v>19</v>
+      </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.15">
@@ -711,7 +741,7 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -723,6 +753,79 @@
       <c r="F14" s="12"/>
       <c r="G14" s="13"/>
     </row>
+    <row r="15" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
+        <v>43179</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B17" s="6"/>
+      <c r="C17" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="14"/>
+      <c r="G17" s="9"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B18" s="6"/>
+      <c r="C18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="15"/>
+      <c r="G18" s="9"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B19" s="6"/>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="14"/>
+      <c r="G19" s="9"/>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B20" s="6"/>
+      <c r="C20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9"/>
+    </row>
+    <row r="21" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="10"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,6 +104,14 @@
   </si>
   <si>
     <t>continue python CI/travis-CI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travis/good---</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autotest bat not finished.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -569,7 +577,7 @@
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -815,7 +823,9 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -823,7 +833,9 @@
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
+      <c r="F21" s="12" t="s">
+        <v>23</v>
+      </c>
       <c r="G21" s="13"/>
     </row>
   </sheetData>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,11 +107,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>travis/good---</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>autotest bat not finished.</t>
+    <t>autotester:
+Try bat file for two panels.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git/.yml /reportfile / deploy merge master?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +582,7 @@
   <dimension ref="B1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -585,7 +590,7 @@
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="33.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="44.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
@@ -764,7 +769,7 @@
     <row r="15" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="16" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B16" s="2">
-        <v>43179</v>
+        <v>43180</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>6</v>
@@ -787,7 +792,7 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="14" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="F17" s="14"/>
       <c r="G17" s="9"/>
@@ -799,7 +804,7 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="8" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="9"/>
@@ -822,10 +827,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="E20" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="8"/>
       <c r="G20" s="9"/>
     </row>
     <row r="21" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -833,9 +838,7 @@
       <c r="C21" s="11"/>
       <c r="D21" s="12"/>
       <c r="E21" s="12"/>
-      <c r="F21" s="12" t="s">
-        <v>23</v>
-      </c>
+      <c r="F21" s="12"/>
       <c r="G21" s="13"/>
     </row>
   </sheetData>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -117,6 +117,10 @@
   </si>
   <si>
     <t>review</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git/.yml /reportfile / deploy merge master/corn test?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -240,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,6 +278,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -579,10 +586,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G21"/>
+  <dimension ref="B1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -590,7 +597,7 @@
     <col min="2" max="2" width="14.25" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="44.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
   </cols>
@@ -841,6 +848,81 @@
       <c r="F21" s="12"/>
       <c r="G21" s="13"/>
     </row>
+    <row r="22" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B23" s="2">
+        <v>43181</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G23" s="5"/>
+    </row>
+    <row r="24" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B24" s="6"/>
+      <c r="C24" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="14"/>
+      <c r="G24" s="9"/>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B25" s="6"/>
+      <c r="C25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="8"/>
+      <c r="E25" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" s="15"/>
+      <c r="G25" s="9"/>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B26" s="6"/>
+      <c r="C26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F26" s="14"/>
+      <c r="G26" s="9"/>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B27" s="6"/>
+      <c r="C27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="8"/>
+      <c r="G27" s="9"/>
+    </row>
+    <row r="28" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="10"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,19 @@
   </si>
   <si>
     <t>git/.yml /reportfile / deploy merge master/corn test?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autotester:
+Try bat file for two panels./commandline image?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>git/.yml /reportfile / deploy merge master/python pg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autotest/prepare for next vistor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -586,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G28"/>
+  <dimension ref="B1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -923,6 +936,81 @@
       <c r="F28" s="12"/>
       <c r="G28" s="13"/>
     </row>
+    <row r="29" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B30" s="2">
+        <v>43182</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G30" s="5"/>
+    </row>
+    <row r="31" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B31" s="6"/>
+      <c r="C31" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F31" s="14"/>
+      <c r="G31" s="9"/>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B32" s="6"/>
+      <c r="C32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="8"/>
+      <c r="E32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="F32" s="15"/>
+      <c r="G32" s="9"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B33" s="6"/>
+      <c r="C33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F33" s="14"/>
+      <c r="G33" s="9"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" s="6"/>
+      <c r="C34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F34" s="8"/>
+      <c r="G34" s="9"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,10 @@
   </si>
   <si>
     <t>autotest/prepare for next vistor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python crawl in github</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -599,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G35"/>
+  <dimension ref="B1:G42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1011,6 +1015,81 @@
       <c r="F35" s="12"/>
       <c r="G35" s="13"/>
     </row>
+    <row r="36" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
+        <v>43185</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G37" s="5"/>
+    </row>
+    <row r="38" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B38" s="6"/>
+      <c r="C38" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="8"/>
+      <c r="E38" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F38" s="14"/>
+      <c r="G38" s="9"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B39" s="6"/>
+      <c r="C39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="8"/>
+      <c r="E39" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F39" s="15"/>
+      <c r="G39" s="9"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B40" s="6"/>
+      <c r="C40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="9"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B41" s="6"/>
+      <c r="C41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="9"/>
+    </row>
+    <row r="42" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="10"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -603,10 +603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G42"/>
+  <dimension ref="B1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1090,6 +1090,81 @@
       <c r="F42" s="12"/>
       <c r="G42" s="13"/>
     </row>
+    <row r="43" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B44" s="2">
+        <v>43187</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G44" s="5"/>
+    </row>
+    <row r="45" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B45" s="6"/>
+      <c r="C45" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="8"/>
+      <c r="E45" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="14"/>
+      <c r="G45" s="9"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B46" s="6"/>
+      <c r="C46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D46" s="8"/>
+      <c r="E46" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F46" s="15"/>
+      <c r="G46" s="9"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B47" s="6"/>
+      <c r="C47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F47" s="14"/>
+      <c r="G47" s="9"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B48" s="6"/>
+      <c r="C48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D48" s="8"/>
+      <c r="E48" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F48" s="8"/>
+      <c r="G48" s="9"/>
+    </row>
+    <row r="49" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B49" s="10"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="12"/>
+      <c r="F49" s="12"/>
+      <c r="G49" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -138,6 +138,10 @@
   </si>
   <si>
     <t>python crawl in github</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>travis.yml/python report?</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -603,10 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G49"/>
+  <dimension ref="B1:G51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1165,6 +1169,11 @@
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
     </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E51" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,14 @@
   </si>
   <si>
     <t>travis.yml/python report?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python crawl in github/travis.yml/python report?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autotest/check supplier/recite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -607,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G51"/>
+  <dimension ref="B1:G57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E63" sqref="E63"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F79" sqref="F79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -621,6 +629,7 @@
     <col min="5" max="5" width="56.125" style="1" customWidth="1"/>
     <col min="6" max="6" width="32" style="1" customWidth="1"/>
     <col min="7" max="7" width="11.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1169,10 +1178,84 @@
       <c r="F49" s="12"/>
       <c r="G49" s="13"/>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="E51" s="1" t="s">
         <v>30</v>
       </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B52" s="2">
+        <v>43188</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="2:7" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B53" s="6"/>
+      <c r="C53" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="8"/>
+      <c r="E53" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F53" s="14"/>
+      <c r="G53" s="9"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B54" s="6"/>
+      <c r="C54" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D54" s="8"/>
+      <c r="E54" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F54" s="15"/>
+      <c r="G54" s="9"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B55" s="6"/>
+      <c r="C55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" s="8"/>
+      <c r="E55" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F55" s="14"/>
+      <c r="G55" s="9"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B56" s="6"/>
+      <c r="C56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D56" s="8"/>
+      <c r="E56" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F56" s="8"/>
+      <c r="G56" s="9"/>
+    </row>
+    <row r="57" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="10"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="35">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t>autotest/check supplier/recite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autotester:
+python crawl &amp; jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>commandline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -615,10 +624,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G57"/>
+  <dimension ref="B1:G64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F79" sqref="F79"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1257,6 +1266,81 @@
       <c r="F57" s="12"/>
       <c r="G57" s="13"/>
     </row>
+    <row r="58" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B59" s="2">
+        <v>43179</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G59" s="5"/>
+    </row>
+    <row r="60" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B60" s="6"/>
+      <c r="C60" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="8"/>
+      <c r="E60" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="14"/>
+      <c r="G60" s="9"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B61" s="6"/>
+      <c r="C61" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D61" s="8"/>
+      <c r="E61" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61" s="15"/>
+      <c r="G61" s="9"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B62" s="6"/>
+      <c r="C62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" s="8"/>
+      <c r="E62" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F62" s="14"/>
+      <c r="G62" s="9"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B63" s="6"/>
+      <c r="C63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="8"/>
+      <c r="E63" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F63" s="8"/>
+      <c r="G63" s="9"/>
+    </row>
+    <row r="64" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="12"/>
+      <c r="F64" s="12"/>
+      <c r="G64" s="13"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="36">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -159,6 +159,10 @@
   </si>
   <si>
     <t>commandline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>software workshop buildup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -282,7 +286,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -319,6 +323,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -624,10 +631,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G64"/>
+  <dimension ref="B1:G71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E78" sqref="E78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1269,7 +1276,7 @@
     <row r="58" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
-        <v>43179</v>
+        <v>43189</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>6</v>
@@ -1341,7 +1348,79 @@
       <c r="F64" s="12"/>
       <c r="G64" s="13"/>
     </row>
+    <row r="65" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B66" s="2">
+        <v>43192</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G66" s="5"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="6"/>
+      <c r="C67" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D67" s="8"/>
+      <c r="E67" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="9"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B68" s="6"/>
+      <c r="C68" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="8"/>
+      <c r="E68" s="17"/>
+      <c r="F68" s="15"/>
+      <c r="G68" s="9"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B69" s="6"/>
+      <c r="C69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" s="8"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="14"/>
+      <c r="G69" s="9"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B70" s="6"/>
+      <c r="C70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D70" s="8"/>
+      <c r="E70" s="17"/>
+      <c r="F70" s="8"/>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B71" s="10"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="12"/>
+      <c r="F71" s="12"/>
+      <c r="G71" s="13"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E67:E70"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,6 +163,10 @@
   </si>
   <si>
     <t>software workshop buildup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>agile/software workshop buildup</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -286,7 +290,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -323,6 +327,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -631,10 +638,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G71"/>
+  <dimension ref="B1:G78"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E78" sqref="E78"/>
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1373,7 +1380,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="17" t="s">
+      <c r="E67" s="18" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="14"/>
@@ -1385,7 +1392,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="17"/>
+      <c r="E68" s="18"/>
       <c r="F68" s="15"/>
       <c r="G68" s="9"/>
     </row>
@@ -1395,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="17"/>
+      <c r="E69" s="18"/>
       <c r="F69" s="14"/>
       <c r="G69" s="9"/>
     </row>
@@ -1405,7 +1412,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="17"/>
+      <c r="E70" s="18"/>
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
@@ -1417,9 +1424,79 @@
       <c r="F71" s="12"/>
       <c r="G71" s="13"/>
     </row>
+    <row r="72" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B73" s="2">
+        <v>43193</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G73" s="5"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B74" s="6"/>
+      <c r="C74" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D74" s="8"/>
+      <c r="E74" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="F74" s="17"/>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B75" s="6"/>
+      <c r="C75" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="8"/>
+      <c r="E75" s="18"/>
+      <c r="F75" s="15"/>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B76" s="6"/>
+      <c r="C76" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" s="8"/>
+      <c r="E76" s="18"/>
+      <c r="F76" s="17"/>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B77" s="6"/>
+      <c r="C77" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D77" s="8"/>
+      <c r="E77" s="18"/>
+      <c r="F77" s="8"/>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B78" s="10"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="12"/>
+      <c r="G78" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E67:E70"/>
+    <mergeCell ref="E74:E77"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="38">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -167,6 +167,10 @@
   </si>
   <si>
     <t>agile/software workshop buildup</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visiting beijing forbidden city</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G78"/>
+  <dimension ref="B1:G80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1493,6 +1497,14 @@
       <c r="F78" s="12"/>
       <c r="G78" s="13"/>
     </row>
+    <row r="80" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B80">
+        <v>20180407</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="E67:E70"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="39">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -171,6 +171,10 @@
   </si>
   <si>
     <t>visiting beijing forbidden city</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>meeting/assiant panel test/mail</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -294,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -331,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -642,10 +649,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G80"/>
+  <dimension ref="B1:G87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="B95" sqref="B95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1384,7 +1391,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="18" t="s">
+      <c r="E67" s="19" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="14"/>
@@ -1396,7 +1403,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="18"/>
+      <c r="E68" s="19"/>
       <c r="F68" s="15"/>
       <c r="G68" s="9"/>
     </row>
@@ -1406,7 +1413,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="18"/>
+      <c r="E69" s="19"/>
       <c r="F69" s="14"/>
       <c r="G69" s="9"/>
     </row>
@@ -1416,7 +1423,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="18"/>
+      <c r="E70" s="19"/>
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
@@ -1453,7 +1460,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="18" t="s">
+      <c r="E74" s="19" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="17"/>
@@ -1465,7 +1472,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="18"/>
+      <c r="E75" s="19"/>
       <c r="F75" s="15"/>
       <c r="G75" s="9"/>
     </row>
@@ -1475,7 +1482,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="18"/>
+      <c r="E76" s="19"/>
       <c r="F76" s="17"/>
       <c r="G76" s="9"/>
     </row>
@@ -1485,7 +1492,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="18"/>
+      <c r="E77" s="19"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
@@ -1505,10 +1512,80 @@
         <v>37</v>
       </c>
     </row>
+    <row r="81" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B82" s="2">
+        <v>43198</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G82" s="5"/>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B83" s="6"/>
+      <c r="C83" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D83" s="8"/>
+      <c r="E83" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" s="18"/>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B84" s="6"/>
+      <c r="C84" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D84" s="8"/>
+      <c r="E84" s="19"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B85" s="6"/>
+      <c r="C85" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" s="8"/>
+      <c r="E85" s="19"/>
+      <c r="F85" s="18"/>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B86" s="6"/>
+      <c r="C86" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D86" s="8"/>
+      <c r="E86" s="19"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B87" s="10"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="12"/>
+      <c r="F87" s="12"/>
+      <c r="G87" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E67:E70"/>
     <mergeCell ref="E74:E77"/>
+    <mergeCell ref="E83:E86"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -298,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,6 +335,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -649,10 +652,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G87"/>
+  <dimension ref="B1:G94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E100" sqref="E100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1391,7 +1394,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="19" t="s">
+      <c r="E67" s="20" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="14"/>
@@ -1403,7 +1406,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="19"/>
+      <c r="E68" s="20"/>
       <c r="F68" s="15"/>
       <c r="G68" s="9"/>
     </row>
@@ -1413,7 +1416,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="19"/>
+      <c r="E69" s="20"/>
       <c r="F69" s="14"/>
       <c r="G69" s="9"/>
     </row>
@@ -1423,7 +1426,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="19"/>
+      <c r="E70" s="20"/>
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
@@ -1460,7 +1463,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="19" t="s">
+      <c r="E74" s="20" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="17"/>
@@ -1472,7 +1475,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="19"/>
+      <c r="E75" s="20"/>
       <c r="F75" s="15"/>
       <c r="G75" s="9"/>
     </row>
@@ -1482,7 +1485,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="19"/>
+      <c r="E76" s="20"/>
       <c r="F76" s="17"/>
       <c r="G76" s="9"/>
     </row>
@@ -1492,7 +1495,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="19"/>
+      <c r="E77" s="20"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
@@ -1537,7 +1540,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="19" t="s">
+      <c r="E83" s="20" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="18"/>
@@ -1549,7 +1552,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="8"/>
-      <c r="E84" s="19"/>
+      <c r="E84" s="20"/>
       <c r="F84" s="15"/>
       <c r="G84" s="9"/>
     </row>
@@ -1559,7 +1562,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="8"/>
-      <c r="E85" s="19"/>
+      <c r="E85" s="20"/>
       <c r="F85" s="18"/>
       <c r="G85" s="9"/>
     </row>
@@ -1569,7 +1572,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="19"/>
+      <c r="E86" s="20"/>
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
@@ -1580,6 +1583,81 @@
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
       <c r="G87" s="13"/>
+    </row>
+    <row r="88" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B89" s="2">
+        <v>43199</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G89" s="5"/>
+    </row>
+    <row r="90" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B90" s="6"/>
+      <c r="C90" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D90" s="8"/>
+      <c r="E90" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="19"/>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B91" s="6"/>
+      <c r="C91" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D91" s="8"/>
+      <c r="E91" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F91" s="15"/>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B92" s="6"/>
+      <c r="C92" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" s="8"/>
+      <c r="E92" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" s="19"/>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B93" s="6"/>
+      <c r="C93" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D93" s="8"/>
+      <c r="E93" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F93" s="8"/>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B94" s="10"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="12"/>
+      <c r="F94" s="12"/>
+      <c r="G94" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="40">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,11 @@
   </si>
   <si>
     <t>meeting/assiant panel test/mail</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autotester:
+python crawl &amp; nose&amp;jenkins</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -335,6 +340,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -652,10 +660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G94"/>
+  <dimension ref="B1:G101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E100" sqref="E100"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="F116" sqref="F116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1394,7 +1402,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="20" t="s">
+      <c r="E67" s="21" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="14"/>
@@ -1406,7 +1414,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="20"/>
+      <c r="E68" s="21"/>
       <c r="F68" s="15"/>
       <c r="G68" s="9"/>
     </row>
@@ -1416,7 +1424,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="20"/>
+      <c r="E69" s="21"/>
       <c r="F69" s="14"/>
       <c r="G69" s="9"/>
     </row>
@@ -1426,7 +1434,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="20"/>
+      <c r="E70" s="21"/>
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
@@ -1463,7 +1471,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="20" t="s">
+      <c r="E74" s="21" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="17"/>
@@ -1475,7 +1483,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="20"/>
+      <c r="E75" s="21"/>
       <c r="F75" s="15"/>
       <c r="G75" s="9"/>
     </row>
@@ -1485,7 +1493,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="20"/>
+      <c r="E76" s="21"/>
       <c r="F76" s="17"/>
       <c r="G76" s="9"/>
     </row>
@@ -1495,7 +1503,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="20"/>
+      <c r="E77" s="21"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
@@ -1540,7 +1548,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="20" t="s">
+      <c r="E83" s="21" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="18"/>
@@ -1552,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="8"/>
-      <c r="E84" s="20"/>
+      <c r="E84" s="21"/>
       <c r="F84" s="15"/>
       <c r="G84" s="9"/>
     </row>
@@ -1562,7 +1570,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="8"/>
-      <c r="E85" s="20"/>
+      <c r="E85" s="21"/>
       <c r="F85" s="18"/>
       <c r="G85" s="9"/>
     </row>
@@ -1572,7 +1580,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="20"/>
+      <c r="E86" s="21"/>
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
@@ -1658,6 +1666,81 @@
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
       <c r="G94" s="13"/>
+    </row>
+    <row r="95" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B96" s="2">
+        <v>43212</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G96" s="5"/>
+    </row>
+    <row r="97" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B97" s="6"/>
+      <c r="C97" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D97" s="8"/>
+      <c r="E97" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="F97" s="20"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B98" s="6"/>
+      <c r="C98" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D98" s="8"/>
+      <c r="E98" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" s="15"/>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B99" s="6"/>
+      <c r="C99" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" s="8"/>
+      <c r="E99" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99" s="20"/>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B100" s="6"/>
+      <c r="C100" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D100" s="8"/>
+      <c r="E100" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F100" s="8"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B101" s="10"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="12"/>
+      <c r="F101" s="12"/>
+      <c r="G101" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +340,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -660,10 +663,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G101"/>
+  <dimension ref="B1:G108"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="F116" sqref="F116"/>
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1402,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="21" t="s">
+      <c r="E67" s="22" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="14"/>
@@ -1414,7 +1417,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="21"/>
+      <c r="E68" s="22"/>
       <c r="F68" s="15"/>
       <c r="G68" s="9"/>
     </row>
@@ -1424,7 +1427,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="21"/>
+      <c r="E69" s="22"/>
       <c r="F69" s="14"/>
       <c r="G69" s="9"/>
     </row>
@@ -1434,7 +1437,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="21"/>
+      <c r="E70" s="22"/>
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
@@ -1471,7 +1474,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="21" t="s">
+      <c r="E74" s="22" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="17"/>
@@ -1483,7 +1486,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="21"/>
+      <c r="E75" s="22"/>
       <c r="F75" s="15"/>
       <c r="G75" s="9"/>
     </row>
@@ -1493,7 +1496,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="21"/>
+      <c r="E76" s="22"/>
       <c r="F76" s="17"/>
       <c r="G76" s="9"/>
     </row>
@@ -1503,7 +1506,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="21"/>
+      <c r="E77" s="22"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
@@ -1548,7 +1551,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="21" t="s">
+      <c r="E83" s="22" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="18"/>
@@ -1560,7 +1563,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="8"/>
-      <c r="E84" s="21"/>
+      <c r="E84" s="22"/>
       <c r="F84" s="15"/>
       <c r="G84" s="9"/>
     </row>
@@ -1570,7 +1573,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="8"/>
-      <c r="E85" s="21"/>
+      <c r="E85" s="22"/>
       <c r="F85" s="18"/>
       <c r="G85" s="9"/>
     </row>
@@ -1580,7 +1583,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="21"/>
+      <c r="E86" s="22"/>
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
@@ -1670,7 +1673,7 @@
     <row r="95" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
     <row r="96" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B96" s="2">
-        <v>43212</v>
+        <v>43202</v>
       </c>
       <c r="C96" s="3" t="s">
         <v>6</v>
@@ -1741,6 +1744,81 @@
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
       <c r="G101" s="13"/>
+    </row>
+    <row r="102" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="103" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B103" s="2">
+        <v>43206</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G103" s="5"/>
+    </row>
+    <row r="104" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B104" s="6"/>
+      <c r="C104" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D104" s="8"/>
+      <c r="E104" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F104" s="21"/>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B105" s="6"/>
+      <c r="C105" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D105" s="8"/>
+      <c r="E105" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" s="15"/>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B106" s="6"/>
+      <c r="C106" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" s="8"/>
+      <c r="E106" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F106" s="21"/>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B107" s="6"/>
+      <c r="C107" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D107" s="8"/>
+      <c r="E107" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" s="8"/>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B108" s="10"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="12"/>
+      <c r="F108" s="12"/>
+      <c r="G108" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="42">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,6 +180,14 @@
   <si>
     <t>autotester:
 python crawl &amp; nose&amp;jenkins</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>english learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review recite</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -303,7 +311,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -340,6 +348,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -663,10 +674,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G108"/>
+  <dimension ref="B1:G116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1405,7 +1416,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="22" t="s">
+      <c r="E67" s="23" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="14"/>
@@ -1417,7 +1428,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="22"/>
+      <c r="E68" s="23"/>
       <c r="F68" s="15"/>
       <c r="G68" s="9"/>
     </row>
@@ -1427,7 +1438,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="22"/>
+      <c r="E69" s="23"/>
       <c r="F69" s="14"/>
       <c r="G69" s="9"/>
     </row>
@@ -1437,7 +1448,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="22"/>
+      <c r="E70" s="23"/>
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
@@ -1474,7 +1485,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="22" t="s">
+      <c r="E74" s="23" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="17"/>
@@ -1486,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="22"/>
+      <c r="E75" s="23"/>
       <c r="F75" s="15"/>
       <c r="G75" s="9"/>
     </row>
@@ -1496,7 +1507,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="22"/>
+      <c r="E76" s="23"/>
       <c r="F76" s="17"/>
       <c r="G76" s="9"/>
     </row>
@@ -1506,7 +1517,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="22"/>
+      <c r="E77" s="23"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
@@ -1551,7 +1562,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="22" t="s">
+      <c r="E83" s="23" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="18"/>
@@ -1563,7 +1574,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="8"/>
-      <c r="E84" s="22"/>
+      <c r="E84" s="23"/>
       <c r="F84" s="15"/>
       <c r="G84" s="9"/>
     </row>
@@ -1573,7 +1584,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="8"/>
-      <c r="E85" s="22"/>
+      <c r="E85" s="23"/>
       <c r="F85" s="18"/>
       <c r="G85" s="9"/>
     </row>
@@ -1583,7 +1594,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="22"/>
+      <c r="E86" s="23"/>
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
@@ -1819,6 +1830,81 @@
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="13"/>
+    </row>
+    <row r="110" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="111" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B111" s="2">
+        <v>43207</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="G111" s="5"/>
+    </row>
+    <row r="112" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B112" s="6"/>
+      <c r="C112" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="8"/>
+      <c r="E112" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F112" s="22"/>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B113" s="6"/>
+      <c r="C113" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="8"/>
+      <c r="E113" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="F113" s="15"/>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B114" s="6"/>
+      <c r="C114" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" s="8"/>
+      <c r="E114" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F114" s="22"/>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B115" s="6"/>
+      <c r="C115" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D115" s="8"/>
+      <c r="E115" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F115" s="8"/>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B116" s="10"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="12"/>
+      <c r="F116" s="12"/>
+      <c r="G116" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="47">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,6 +188,26 @@
   </si>
   <si>
     <t>review recite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>solve github user problem</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>autotester:
+test case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>test case</t>
+  </si>
+  <si>
+    <t>test case</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>learning</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -311,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -348,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -674,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G116"/>
+  <dimension ref="B1:G123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E119" sqref="E119"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="H130" sqref="H130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1416,7 +1439,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="23" t="s">
+      <c r="E67" s="24" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="14"/>
@@ -1428,7 +1451,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="23"/>
+      <c r="E68" s="24"/>
       <c r="F68" s="15"/>
       <c r="G68" s="9"/>
     </row>
@@ -1438,7 +1461,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="23"/>
+      <c r="E69" s="24"/>
       <c r="F69" s="14"/>
       <c r="G69" s="9"/>
     </row>
@@ -1448,7 +1471,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="23"/>
+      <c r="E70" s="24"/>
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
@@ -1485,7 +1508,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="23" t="s">
+      <c r="E74" s="24" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="17"/>
@@ -1497,7 +1520,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="23"/>
+      <c r="E75" s="24"/>
       <c r="F75" s="15"/>
       <c r="G75" s="9"/>
     </row>
@@ -1507,7 +1530,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="23"/>
+      <c r="E76" s="24"/>
       <c r="F76" s="17"/>
       <c r="G76" s="9"/>
     </row>
@@ -1517,7 +1540,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="23"/>
+      <c r="E77" s="24"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
@@ -1562,7 +1585,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="23" t="s">
+      <c r="E83" s="24" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="18"/>
@@ -1574,7 +1597,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="8"/>
-      <c r="E84" s="23"/>
+      <c r="E84" s="24"/>
       <c r="F84" s="15"/>
       <c r="G84" s="9"/>
     </row>
@@ -1584,7 +1607,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="8"/>
-      <c r="E85" s="23"/>
+      <c r="E85" s="24"/>
       <c r="F85" s="18"/>
       <c r="G85" s="9"/>
     </row>
@@ -1594,7 +1617,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="23"/>
+      <c r="E86" s="24"/>
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
@@ -1905,6 +1928,81 @@
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="13"/>
+    </row>
+    <row r="117" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="118" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B118" s="2">
+        <v>43245</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G118" s="5"/>
+    </row>
+    <row r="119" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B119" s="6"/>
+      <c r="C119" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119" s="8"/>
+      <c r="E119" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F119" s="23"/>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B120" s="6"/>
+      <c r="C120" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="8"/>
+      <c r="E120" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F120" s="15"/>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B121" s="6"/>
+      <c r="C121" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" s="8"/>
+      <c r="E121" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F121" s="23"/>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B122" s="6"/>
+      <c r="C122" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D122" s="8"/>
+      <c r="E122" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F122" s="8"/>
+      <c r="G122" s="9"/>
+    </row>
+    <row r="123" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B123" s="10"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="12"/>
+      <c r="F123" s="12"/>
+      <c r="G123" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="47">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,7 +331,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +368,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -697,10 +700,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G123"/>
+  <dimension ref="B1:G131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="H130" sqref="H130"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="E133" sqref="E133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1439,7 +1442,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="24" t="s">
+      <c r="E67" s="25" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="14"/>
@@ -1451,7 +1454,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="24"/>
+      <c r="E68" s="25"/>
       <c r="F68" s="15"/>
       <c r="G68" s="9"/>
     </row>
@@ -1461,7 +1464,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="24"/>
+      <c r="E69" s="25"/>
       <c r="F69" s="14"/>
       <c r="G69" s="9"/>
     </row>
@@ -1471,7 +1474,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="24"/>
+      <c r="E70" s="25"/>
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
@@ -1508,7 +1511,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="24" t="s">
+      <c r="E74" s="25" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="17"/>
@@ -1520,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="24"/>
+      <c r="E75" s="25"/>
       <c r="F75" s="15"/>
       <c r="G75" s="9"/>
     </row>
@@ -1530,7 +1533,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="24"/>
+      <c r="E76" s="25"/>
       <c r="F76" s="17"/>
       <c r="G76" s="9"/>
     </row>
@@ -1540,7 +1543,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="24"/>
+      <c r="E77" s="25"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
@@ -1585,7 +1588,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="24" t="s">
+      <c r="E83" s="25" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="18"/>
@@ -1597,7 +1600,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="8"/>
-      <c r="E84" s="24"/>
+      <c r="E84" s="25"/>
       <c r="F84" s="15"/>
       <c r="G84" s="9"/>
     </row>
@@ -1607,7 +1610,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="8"/>
-      <c r="E85" s="24"/>
+      <c r="E85" s="25"/>
       <c r="F85" s="18"/>
       <c r="G85" s="9"/>
     </row>
@@ -1617,7 +1620,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="24"/>
+      <c r="E86" s="25"/>
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
@@ -2003,6 +2006,81 @@
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="13"/>
+    </row>
+    <row r="125" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="126" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B126" s="2">
+        <v>43258</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D126" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G126" s="5"/>
+    </row>
+    <row r="127" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B127" s="6"/>
+      <c r="C127" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D127" s="8"/>
+      <c r="E127" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F127" s="24"/>
+      <c r="G127" s="9"/>
+    </row>
+    <row r="128" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B128" s="6"/>
+      <c r="C128" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="8"/>
+      <c r="E128" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F128" s="15"/>
+      <c r="G128" s="9"/>
+    </row>
+    <row r="129" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B129" s="6"/>
+      <c r="C129" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" s="8"/>
+      <c r="E129" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F129" s="24"/>
+      <c r="G129" s="9"/>
+    </row>
+    <row r="130" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B130" s="6"/>
+      <c r="C130" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D130" s="8"/>
+      <c r="E130" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F130" s="8"/>
+      <c r="G130" s="9"/>
+    </row>
+    <row r="131" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B131" s="10"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="12"/>
+      <c r="F131" s="12"/>
+      <c r="G131" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/dailyworkRecord.xlsx
+++ b/dailyworkRecord.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="49">
   <si>
     <t>date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -208,6 +208,14 @@
   </si>
   <si>
     <t>learning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>python edit file//test case auto check …interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>review</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -331,7 +339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -368,6 +376,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -700,10 +711,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G131"/>
+  <dimension ref="B1:G139"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="E133" sqref="E133"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="F143" sqref="F143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1442,7 +1453,7 @@
         <v>8</v>
       </c>
       <c r="D67" s="8"/>
-      <c r="E67" s="25" t="s">
+      <c r="E67" s="26" t="s">
         <v>35</v>
       </c>
       <c r="F67" s="14"/>
@@ -1454,7 +1465,7 @@
         <v>9</v>
       </c>
       <c r="D68" s="8"/>
-      <c r="E68" s="25"/>
+      <c r="E68" s="26"/>
       <c r="F68" s="15"/>
       <c r="G68" s="9"/>
     </row>
@@ -1464,7 +1475,7 @@
         <v>10</v>
       </c>
       <c r="D69" s="8"/>
-      <c r="E69" s="25"/>
+      <c r="E69" s="26"/>
       <c r="F69" s="14"/>
       <c r="G69" s="9"/>
     </row>
@@ -1474,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="D70" s="8"/>
-      <c r="E70" s="25"/>
+      <c r="E70" s="26"/>
       <c r="F70" s="8"/>
       <c r="G70" s="9"/>
     </row>
@@ -1511,7 +1522,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="25" t="s">
+      <c r="E74" s="26" t="s">
         <v>36</v>
       </c>
       <c r="F74" s="17"/>
@@ -1523,7 +1534,7 @@
         <v>9</v>
       </c>
       <c r="D75" s="8"/>
-      <c r="E75" s="25"/>
+      <c r="E75" s="26"/>
       <c r="F75" s="15"/>
       <c r="G75" s="9"/>
     </row>
@@ -1533,7 +1544,7 @@
         <v>10</v>
       </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="25"/>
+      <c r="E76" s="26"/>
       <c r="F76" s="17"/>
       <c r="G76" s="9"/>
     </row>
@@ -1543,7 +1554,7 @@
         <v>11</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="25"/>
+      <c r="E77" s="26"/>
       <c r="F77" s="8"/>
       <c r="G77" s="9"/>
     </row>
@@ -1588,7 +1599,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="8"/>
-      <c r="E83" s="25" t="s">
+      <c r="E83" s="26" t="s">
         <v>38</v>
       </c>
       <c r="F83" s="18"/>
@@ -1600,7 +1611,7 @@
         <v>9</v>
       </c>
       <c r="D84" s="8"/>
-      <c r="E84" s="25"/>
+      <c r="E84" s="26"/>
       <c r="F84" s="15"/>
       <c r="G84" s="9"/>
     </row>
@@ -1610,7 +1621,7 @@
         <v>10</v>
       </c>
       <c r="D85" s="8"/>
-      <c r="E85" s="25"/>
+      <c r="E85" s="26"/>
       <c r="F85" s="18"/>
       <c r="G85" s="9"/>
     </row>
@@ -1620,7 +1631,7 @@
         <v>11</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="25"/>
+      <c r="E86" s="26"/>
       <c r="F86" s="8"/>
       <c r="G86" s="9"/>
     </row>
@@ -2081,6 +2092,81 @@
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="G131" s="13"/>
+    </row>
+    <row r="133" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2"/>
+    <row r="134" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B134" s="2">
+        <v>43277</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="G134" s="5"/>
+    </row>
+    <row r="135" spans="2:7" ht="27" x14ac:dyDescent="0.15">
+      <c r="B135" s="6"/>
+      <c r="C135" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D135" s="8"/>
+      <c r="E135" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F135" s="25"/>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B136" s="6"/>
+      <c r="C136" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D136" s="8"/>
+      <c r="E136" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F136" s="15"/>
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B137" s="6"/>
+      <c r="C137" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" s="8"/>
+      <c r="E137" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F137" s="25"/>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B138" s="6"/>
+      <c r="C138" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D138" s="8"/>
+      <c r="E138" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F138" s="8"/>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="2:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="10"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="3">
